--- a/02-Avancado1-Funcoes/06-FuncoesLogica/Aula-26-ExcelAvancado1-Lanhouse-FuncoesLogica.xlsx
+++ b/02-Avancado1-Funcoes/06-FuncoesLogica/Aula-26-ExcelAvancado1-Lanhouse-FuncoesLogica.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\06-FuncoesLogica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12345B94-CAE6-488A-A39F-7622F38D7BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87ACE4C7-362C-41D6-9E3D-2157C94D49AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <author>tc={B2A4E9EF-F616-4334-853E-1484AB7866CA}</author>
     <author>tc={A86ABDD8-08BD-44E8-A81D-A25161845207}</author>
     <author>tc={ECD4FCF1-F76D-45CC-A022-D5E4D6BCA65F}</author>
-    <author>vaamonde</author>
+    <author>tc={66CFD2C9-30B3-4920-B497-FA8F84B4C2A1}</author>
   </authors>
   <commentList>
     <comment ref="E16" authorId="0" shapeId="0" xr:uid="{F5687DF7-7684-45AB-B621-4EFD17978805}">
@@ -70,17 +70,12 @@
     Utilizar a Função =SE()</t>
       </text>
     </comment>
-    <comment ref="J16" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="J16" authorId="5" shapeId="0" xr:uid="{66CFD2C9-30B3-4920-B497-FA8F84B4C2A1}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>vaamonde:
-Utilizar a função do Excel: MULT()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =MULT()</t>
       </text>
     </comment>
   </commentList>
@@ -290,7 +285,7 @@
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,11 +331,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,7 +390,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -489,6 +479,14 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,14 +498,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -538,9 +528,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>240077</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2663</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -570,7 +560,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="602072" y="183929"/>
-          <a:ext cx="1371555" cy="901921"/>
+          <a:ext cx="1436278" cy="904584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -990,12 +980,15 @@
   <threadedComment ref="I16" dT="2025-01-14T19:44:16.12" personId="{68D9D7F6-B84A-4E23-A742-8B3E221F7444}" id="{ECD4FCF1-F76D-45CC-A022-D5E4D6BCA65F}">
     <text>Utilizar a Função =SE()</text>
   </threadedComment>
+  <threadedComment ref="J16" dT="2025-01-15T22:52:31.68" personId="{68D9D7F6-B84A-4E23-A742-8B3E221F7444}" id="{66CFD2C9-30B3-4920-B497-FA8F84B4C2A1}">
+    <text>Utilizar a Função =MULT()</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1014,119 +1007,119 @@
     <col min="19" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="24" customFormat="1" ht="14.25">
-      <c r="A1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B2" s="25" t="s">
+    <row r="1" spans="1:10" s="20" customFormat="1" ht="14.25">
+      <c r="A1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" s="20" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-    </row>
-    <row r="3" spans="1:10" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="1:10" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-    </row>
-    <row r="5" spans="1:10" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-    </row>
-    <row r="6" spans="1:10" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="1:10" s="24" customFormat="1" ht="14.25"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:10" s="20" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:10" s="20" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="1:10" s="20" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" s="20" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" s="20" customFormat="1" ht="14.25"/>
     <row r="8" spans="1:10" ht="21">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10"/>
     <row r="11" spans="1:10">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10">
       <c r="C13" s="8"/>
@@ -1139,17 +1132,17 @@
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="18.75">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10"/>
     <row r="16" spans="1:10" ht="30">
